--- a/biology/Botanique/George_Wheler_(écrivain)/George_Wheler_(écrivain).xlsx
+++ b/biology/Botanique/George_Wheler_(écrivain)/George_Wheler_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>George_Wheler_(%C3%A9crivain)</t>
+          <t>George_Wheler_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Wheler (né le 20 janvier 1651 à Bréda où ses parents, royalistes, étaient en exil et mort le 15 janvier 1724 (à 72 ans) à Durham) est un voyageur et écrivain anglais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>George_Wheler_(%C3%A9crivain)</t>
+          <t>George_Wheler_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George Wheler accomplit ses études au Lincoln College, à Oxford à partir de 1667. Il obtint son M. A en 1683 et son doctorat de théologie en 1702. Il s'inscrit aussi au Middle Temple à partir de 1671.
 Entretemps, il réalise son Grand Tour à partir de 1673, d'abord en France, Suisse et Italie, avant de s'aventurer en Orient avec Jacob Spon rencontré en 1675 à Venise. Ils parcoururent la Grèce et l'Asie mineure, s'intéressant aux antiquités et à la botanique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>George_Wheler_(%C3%A9crivain)</t>
+          <t>George_Wheler_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(fr) Jacob Spon et George Wheler, Voyage d'Italie, de Dalmatie, de Grèce et du Levant, fait aux années 1675 &amp; 1676, t. I, Lyon, Antoine Cellier, 1678 (lire en ligne)t. II - t. III
 (fr) Voyage d'Italie, de Dalmatie, de Grèce et du Levant, fait aux années 1675 &amp; 1676, Amsterdam, Henry et Theodore Boom, 1679
